--- a/BCRPP_QC_R_Excel_Program/BCRPP_QC_Version_1/Incident Cases Rules/BCRPP Incident Cases Warning Rules.xlsx
+++ b/BCRPP_QC_R_Excel_Program/BCRPP_QC_Version_1/Incident Cases Rules/BCRPP Incident Cases Warning Rules.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924638A6-C5CE-584C-922A-A1365CBB5852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21D0E11-56FB-43A3-BC94-F949B66AEAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38200" yWindow="-1200" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,9 +194,6 @@
     <t>size_primary1 should be between 20 and 50 mm when sizecat_primary1 is 2</t>
   </si>
   <si>
-    <t>size_primary1 &gt;= 50 | size_primary1  == 888</t>
-  </si>
-  <si>
     <t>size_primary1 should be greater than 50 mm when sizecat_primary1 is 3</t>
   </si>
   <si>
@@ -321,6 +318,9 @@
   </si>
   <si>
     <t>ki67cat_primary2 does not have recognized values</t>
+  </si>
+  <si>
+    <t>size_primary1 &gt; 50 &amp;size_primary1 &lt;= 100 | size_primary1  == 888</t>
   </si>
 </sst>
 </file>
@@ -695,35 +695,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="A8:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="64" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="74.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="72.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="83.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,7 +785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -817,7 +817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="37" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -849,7 +849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="37" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -885,7 +885,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -917,7 +917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -949,7 +949,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="37" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -981,7 +981,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="37" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>48</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>46</v>
@@ -1256,10 +1256,10 @@
         <v>48</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -1292,12 +1292,12 @@
         <v>48</v>
       </c>
       <c r="T16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
@@ -1305,7 +1305,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1321,15 +1321,15 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T17" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>21</v>
@@ -1337,7 +1337,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1353,15 +1353,15 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="T18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>21</v>
@@ -1369,7 +1369,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1385,15 +1385,15 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T19" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="T19" s="5" t="s">
+    </row>
+    <row r="20" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>28</v>
@@ -1403,16 +1403,16 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1423,15 +1423,15 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T20" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
@@ -1439,7 +1439,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1455,15 +1455,15 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T21" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -1487,15 +1487,15 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="T22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -1519,15 +1519,15 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="T23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -1551,15 +1551,15 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T24" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>28</v>
@@ -1569,13 +1569,13 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="I25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
@@ -1589,15 +1589,15 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>28</v>
@@ -1607,13 +1607,13 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J26" s="2">
         <v>2</v>
@@ -1627,15 +1627,15 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>28</v>
@@ -1645,13 +1645,13 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J27" s="2">
         <v>3</v>
@@ -1665,15 +1665,15 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>27</v>
@@ -1687,7 +1687,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J28" s="2">
         <v>888</v>
@@ -1701,15 +1701,15 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T28" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>21</v>
@@ -1717,7 +1717,7 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -1733,15 +1733,15 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T29" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="T29" s="5" t="s">
+    </row>
+    <row r="30" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>21</v>
@@ -1749,7 +1749,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1765,15 +1765,15 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T30" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="T30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>21</v>
@@ -1781,7 +1781,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1797,15 +1797,15 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="T31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="T31" s="2" t="s">
+    </row>
+    <row r="32" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>28</v>
@@ -1815,16 +1815,16 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -1835,15 +1835,15 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T32" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
@@ -1851,7 +1851,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1867,10 +1867,10 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="T33" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1885,7 +1885,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1898,7 +1898,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/BCRPP_QC_R_Excel_Program/BCRPP_QC_Version_1/Incident Cases Rules/BCRPP Incident Cases Warning Rules.xlsx
+++ b/BCRPP_QC_R_Excel_Program/BCRPP_QC_Version_1/Incident Cases Rules/BCRPP Incident Cases Warning Rules.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21D0E11-56FB-43A3-BC94-F949B66AEAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0B1D6D-2F36-4873-9AD2-0FDE7681B1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,9 +275,6 @@
     <t>size_primary2 should be between 20 and 50 mm when sizecat_primary2 is 2</t>
   </si>
   <si>
-    <t>size_primary2 &gt;= 50 | size_primary2  == 888</t>
-  </si>
-  <si>
     <t>size_primary2 should be greater than 50 mm when sizecat_primary2 is 3</t>
   </si>
   <si>
@@ -320,7 +317,10 @@
     <t>ki67cat_primary2 does not have recognized values</t>
   </si>
   <si>
-    <t>size_primary1 &gt; 50 &amp;size_primary1 &lt;= 100 | size_primary1  == 888</t>
+    <t>size_primary1 &gt; 50 &amp; size_primary1 &lt;= 100 | size_primary1  == 888</t>
+  </si>
+  <si>
+    <t>size_primary2 &gt; 50 &amp; size_primary2 &lt;= 100 | size_primary2  == 888</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1236,7 +1236,7 @@
         <v>48</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>46</v>
@@ -1648,7 +1648,7 @@
         <v>75</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>73</v>
@@ -1668,7 +1668,7 @@
         <v>75</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
@@ -1704,12 +1704,12 @@
         <v>75</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>21</v>
@@ -1733,15 +1733,15 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="T29" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="T29" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>21</v>
@@ -1765,15 +1765,15 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T30" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>21</v>
@@ -1797,15 +1797,15 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T31" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>28</v>
@@ -1815,16 +1815,16 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -1835,15 +1835,15 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
@@ -1867,10 +1867,10 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="T33" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
